--- a/dataset/matching.xlsx
+++ b/dataset/matching.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="814">
   <si>
     <t>id</t>
   </si>
@@ -271,126 +271,129 @@
     <t>3-6-4</t>
   </si>
   <si>
+    <t>When you create a Google Account, you provide us with personal information that includes your name and a password.We don’t share information that personally identifies you with advertisers, such as your name or email, unless you ask us to.If other users already have your email address or other information that identifies you, we may show them your publicly visible Google Account information, such as your name and photo.When you’re signed in and interact with some Google services, like leaving comments on a YouTube video or reviewing an app in Play, your name and photo appear next to your activity.For example, if you use Google Home to make a reservation through a booking service, we’ll get your permission before sharing your name or phone number with the restaurant.</t>
+  </si>
+  <si>
+    <t>3-7-1</t>
+  </si>
+  <si>
+    <t>Even if you aren’t signed in to a Google Account, you might choose to provide us with information — like an email address to communicate with Google or receive updates about our services.We also collect the content you create, upload, or receive from others when using our services. This includes things like email you write and receive, photos and videos you save, docs and spreadsheets you create, and comments you make on YouTube videos.If you use our services to make and receive calls or send and receive messages, we may collect call and message log information like your phone number, calling-party number, receiving-party number, forwarding numbers, sender and recipient email address, time and date of calls and messages, duration of calls, routing information, and types and volumes of calls and messages.We don’t share information that personally identifies you with advertisers, such as your name or email, unless you ask us to.We use information we collect, like your email address, to interact with you directly.If other users already have your email address or other information that identifies you, we may show them your publicly visible Google Account information, such as your name and photo. This helps people identify an email coming from you, for example.If you’re a student or work for an organization that uses Google services, your domain administrator and resellers who manage your account will have access to your Google Account. They may be able to: Access and retain information stored in your account, like your email</t>
+  </si>
+  <si>
+    <t>3-7-2</t>
+  </si>
+  <si>
+    <t>3-7-3</t>
+  </si>
+  <si>
+    <t>If you’re a student or work for an organization that uses Google services, your domain administrator and resellers who manage your account will have access to your Google Account. They may be able to:Receive your account information in order to satisfy applicable law, regulation, legal process, or enforceable governmental request.If other users already have your email address or other information that identifies you, we may show them your publicly visible Google Account information, such as your name and photo. This helps people identify an email coming from you, for example.</t>
+  </si>
+  <si>
+    <t>3-7-4</t>
+  </si>
+  <si>
+    <t>When you purchase services or physical goods from us, you may provide us information like your shipping address or delivery instructions. We use this information for things like processing, fulfilling, and delivering your order, and to provide support in connection with the product or service you purchase.</t>
+  </si>
+  <si>
+    <t>3-7-5</t>
+  </si>
+  <si>
+    <t>3-7-6</t>
+  </si>
+  <si>
+    <t>3-8-1</t>
+  </si>
+  <si>
+    <t>3-8-2</t>
+  </si>
+  <si>
+    <t>3-8-3</t>
+  </si>
+  <si>
+    <t>3-8-4</t>
+  </si>
+  <si>
+    <t>4-1-1</t>
+  </si>
+  <si>
+    <t>Find other users and invite your friends. You can choose whether to find other users of the Platform using our 'Find Friends' function. This functionality allows you to see which of your friends from either your telephone's contact list or Facebook friends list is using the Platform and offers you the option to follow them. You can also use this function to invite your contacts to join you on the Platform. We will use the contact information you have for that person, either from within your telephone's contact list or Facebook friends list and give you the option to send them either an SMS, email or third party message (such as Whatsapp, Facebook (including Facebook Messenger) or Twitter) inviting them to view your TikTok profile.</t>
+  </si>
+  <si>
+    <t>4-1-2</t>
+  </si>
+  <si>
+    <t>4-2-1</t>
+  </si>
+  <si>
+    <t>4-2-2</t>
+  </si>
+  <si>
+    <t>4-2-3</t>
+  </si>
+  <si>
+    <t>4-3-1</t>
+  </si>
+  <si>
+    <t>You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video.</t>
+  </si>
+  <si>
+    <t>4-3-2</t>
+  </si>
+  <si>
+    <t>Your Profile Information. You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video.We process information about your followers, the likes you receive and responses to content you upload, for the purposes of promoting your content to other users and exploring whether your profile presents further opportunities for collaboration.If you choose to register or use the Platform using a third-party  social network account details (e.g., Facebook, Twitter, Instagram, Google) or login service, you will provide us or allow to provide us with your username, public profile, and other possible information related to such account.Where you log-in from multiple devices, we will be able to use your profile information to identify your activity across devices.If you choose to register to use the Platform using your social network account details (e.g., Facebook, Twitter, Instagram, Google), you will provide us or allow your social network to provide us with your phone number, email address, username and public profile.Please note that if your profile is public, your content will be visible to anyone on the Platform and may also be accessed or shared by your friends and followers as well as third parties such as search engines, content aggregators and news sites. You can change who can see a video each time you upload a video. Alternatively, you can change your profile to default private by changing your settings to 'Private Account' in “Manage my account” settings.</t>
+  </si>
+  <si>
+    <t>4-3-3</t>
+  </si>
+  <si>
+    <t>We process the content you generate and view on the Platform, including preferences you set (such as choice of language) photographs, audios and videos you upload or create, comments and livestreams you make (“User Content”).</t>
+  </si>
+  <si>
+    <t>4-3-4</t>
+  </si>
+  <si>
+    <t>4-3-5</t>
+  </si>
+  <si>
+    <t>4-4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where you opt to share content on social media platforms, the video, username and accompanying text will be shared on that platform or, in the case of sharing via instant messaging platforms such as Whatsapp, a link to the content will be shared. </t>
+  </si>
+  <si>
+    <t>4-5-1</t>
+  </si>
+  <si>
+    <t>4-5-2</t>
+  </si>
+  <si>
+    <t>Your Profile Information. You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video.</t>
+  </si>
+  <si>
+    <t>4-6-1</t>
+  </si>
+  <si>
+    <t>Your Profile Information. You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video. We link your contact or subscriber information with your activity on our Platform across your devices, using your email or other log-in or device information.If you choose to register to use the Platform using your social network account details (e.g., Facebook, Twitter, Instagram, Google), you will provide us or allow your social network to provide us with your phone number, email address, username and public profile.</t>
+  </si>
+  <si>
+    <t>4-6-2</t>
+  </si>
+  <si>
+    <t>Your Profile Information. You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video.You can choose whether to find other users of the Platform using our 'Find Friends' function. This functionality allows you to see which of your friends from either your telephone's contact list or Facebook friends list is using the Platform and offers you the option to follow them.If you choose to register to use the Platform using your social network account details (e.g., Facebook, Twitter, Instagram, Google), you will provide us or allow your social network to provide us with your phone number, email address, username and public profile.</t>
+  </si>
+  <si>
+    <t>4-6-3</t>
+  </si>
+  <si>
+    <t>4-7-1</t>
+  </si>
+  <si>
+    <t>Voices</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>3-7-1</t>
-  </si>
-  <si>
-    <t>Even if you aren’t signed in to a Google Account, you might choose to provide us with information — like an email address to communicate with Google or receive updates about our services.We also collect the content you create, upload, or receive from others when using our services. This includes things like email you write and receive, photos and videos you save, docs and spreadsheets you create, and comments you make on YouTube videos.If you use our services to make and receive calls or send and receive messages, we may collect call and message log information like your phone number, calling-party number, receiving-party number, forwarding numbers, sender and recipient email address, time and date of calls and messages, duration of calls, routing information, and types and volumes of calls and messages.We don’t share information that personally identifies you with advertisers, such as your name or email, unless you ask us to.We use information we collect, like your email address, to interact with you directly.If other users already have your email address or other information that identifies you, we may show them your publicly visible Google Account information, such as your name and photo. This helps people identify an email coming from you, for example.If you’re a student or work for an organization that uses Google services, your domain administrator and resellers who manage your account will have access to your Google Account. They may be able to: Access and retain information stored in your account, like your email</t>
-  </si>
-  <si>
-    <t>3-7-2</t>
-  </si>
-  <si>
-    <t>3-7-3</t>
-  </si>
-  <si>
-    <t>If you’re a student or work for an organization that uses Google services, your domain administrator and resellers who manage your account will have access to your Google Account. They may be able to:Receive your account information in order to satisfy applicable law, regulation, legal process, or enforceable governmental request.If other users already have your email address or other information that identifies you, we may show them your publicly visible Google Account information, such as your name and photo. This helps people identify an email coming from you, for example.</t>
-  </si>
-  <si>
-    <t>3-7-4</t>
-  </si>
-  <si>
-    <t>When you purchase services or physical goods from us, you may provide us information like your shipping address or delivery instructions. We use this information for things like processing, fulfilling, and delivering your order, and to provide support in connection with the product or service you purchase.</t>
-  </si>
-  <si>
-    <t>3-7-5</t>
-  </si>
-  <si>
-    <t>3-7-6</t>
-  </si>
-  <si>
-    <t>3-8-1</t>
-  </si>
-  <si>
-    <t>3-8-2</t>
-  </si>
-  <si>
-    <t>3-8-3</t>
-  </si>
-  <si>
-    <t>3-8-4</t>
-  </si>
-  <si>
-    <t>4-1-1</t>
-  </si>
-  <si>
-    <t>Find other users and invite your friends. You can choose whether to find other users of the Platform using our 'Find Friends' function. This functionality allows you to see which of your friends from either your telephone's contact list or Facebook friends list is using the Platform and offers you the option to follow them. You can also use this function to invite your contacts to join you on the Platform. We will use the contact information you have for that person, either from within your telephone's contact list or Facebook friends list and give you the option to send them either an SMS, email or third party message (such as Whatsapp, Facebook (including Facebook Messenger) or Twitter) inviting them to view your TikTok profile.</t>
-  </si>
-  <si>
-    <t>4-1-2</t>
-  </si>
-  <si>
-    <t>4-2-1</t>
-  </si>
-  <si>
-    <t>4-2-2</t>
-  </si>
-  <si>
-    <t>4-2-3</t>
-  </si>
-  <si>
-    <t>4-3-1</t>
-  </si>
-  <si>
-    <t>You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video.</t>
-  </si>
-  <si>
-    <t>4-3-2</t>
-  </si>
-  <si>
-    <t>Your Profile Information. You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video.We process information about your followers, the likes you receive and responses to content you upload, for the purposes of promoting your content to other users and exploring whether your profile presents further opportunities for collaboration.If you choose to register or use the Platform using a third-party  social network account details (e.g., Facebook, Twitter, Instagram, Google) or login service, you will provide us or allow to provide us with your username, public profile, and other possible information related to such account.Where you log-in from multiple devices, we will be able to use your profile information to identify your activity across devices.If you choose to register to use the Platform using your social network account details (e.g., Facebook, Twitter, Instagram, Google), you will provide us or allow your social network to provide us with your phone number, email address, username and public profile.Please note that if your profile is public, your content will be visible to anyone on the Platform and may also be accessed or shared by your friends and followers as well as third parties such as search engines, content aggregators and news sites. You can change who can see a video each time you upload a video. Alternatively, you can change your profile to default private by changing your settings to 'Private Account' in “Manage my account” settings.</t>
-  </si>
-  <si>
-    <t>4-3-3</t>
-  </si>
-  <si>
-    <t>We process the content you generate and view on the Platform, including preferences you set (such as choice of language) photographs, audios and videos you upload or create, comments and livestreams you make (“User Content”).</t>
-  </si>
-  <si>
-    <t>4-3-4</t>
-  </si>
-  <si>
-    <t>4-3-5</t>
-  </si>
-  <si>
-    <t>4-4-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where you opt to share content on social media platforms, the video, username and accompanying text will be shared on that platform or, in the case of sharing via instant messaging platforms such as Whatsapp, a link to the content will be shared. </t>
-  </si>
-  <si>
-    <t>4-5-1</t>
-  </si>
-  <si>
-    <t>4-5-2</t>
-  </si>
-  <si>
-    <t>Your Profile Information. You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video.</t>
-  </si>
-  <si>
-    <t>4-6-1</t>
-  </si>
-  <si>
-    <t>Your Profile Information. You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video. We link your contact or subscriber information with your activity on our Platform across your devices, using your email or other log-in or device information.If you choose to register to use the Platform using your social network account details (e.g., Facebook, Twitter, Instagram, Google), you will provide us or allow your social network to provide us with your phone number, email address, username and public profile.</t>
-  </si>
-  <si>
-    <t>4-6-2</t>
-  </si>
-  <si>
-    <t>Your Profile Information. You give us information when you register on the Platform, including your username, password, date of birth (where applicable), email address and/or telephone number, information you disclose in your user profile, and your photograph or profile video.You can choose whether to find other users of the Platform using our 'Find Friends' function. This functionality allows you to see which of your friends from either your telephone's contact list or Facebook friends list is using the Platform and offers you the option to follow them.If you choose to register to use the Platform using your social network account details (e.g., Facebook, Twitter, Instagram, Google), you will provide us or allow your social network to provide us with your phone number, email address, username and public profile.</t>
-  </si>
-  <si>
-    <t>4-6-3</t>
-  </si>
-  <si>
-    <t>4-7-1</t>
-  </si>
-  <si>
-    <t>Voices</t>
-  </si>
-  <si>
     <t>4-8-1</t>
   </si>
   <si>
@@ -656,6 +659,9 @@
   </si>
   <si>
     <t>6-6-2</t>
+  </si>
+  <si>
+    <t>This also includes information about when you registered to use our Services; the features you use like our messaging, calling, Status, groups (including group name, group picture, group description), payments or business features; profile photo, "about" information; whether you are online, when you last used our Services (your "last seen"); and when you last updated your "about" information.Information Associated With Your Account. Your phone number, profile name and photo, "about" information, last seen information, and message receipts are available to anyone who uses our Services, although you can configure your Services settings to manage certain information available to other users, including businesses, with whom you communicate.Deleting your account will, for example, delete your account info and profile photo, delete you from all WhatsApp groups, and delete your WhatsApp message history.You can add other information to your account, such as a profile picture and "about" information.You can provide a group profile picture or description.Changing Your Mobile Phone Number, Profile Name And Picture, And “About” Information. If you change your mobile phone number, you must update it using our in-app change number feature and transfer your account to your new mobile phone number. You can also change your profile name, profile picture, and "about" information at any time.</t>
   </si>
   <si>
     <t>6-6-3</t>
@@ -1607,6 +1613,9 @@
     <t>17-4-1</t>
   </si>
   <si>
+    <t>We store messages, photos, videos and documents from your cloud chats on our servers so that you can access your data from any of your devices anytime without having to rely on third-party backups.When you send photos, videos or files via secret chats, before being uploaded, each item is encrypted with a separate key, not known to the server.When the timer expires, both devices participating in a secret chat are instructed to delete the message (photo, video, etc.). You provide your mobile number and basic account data (which may include profile name, profile picture and about information) to create a Telegram account.To make it easier for your contacts and other people to reach you and recognize who you are, the screen name you choose, your profile pictures, and your username (should you choose to set one) on Telegram are always public.In any of the above cases, the developers of an automated user (bot) can get your public account data (see section 3.1 above): your screen name, username and profile picture(s).</t>
+  </si>
+  <si>
     <t>17-4-2</t>
   </si>
   <si>
@@ -1619,6 +1628,9 @@
     <t>17-4-4</t>
   </si>
   <si>
+    <t>Telegram is a communication service. You provide your mobile number and basic account data (which may include profile name, profile picture and about information) to create a Telegram account.To make it easier for your contacts and other people to reach you and recognize who you are, the screen name you choose, your profile pictures, and your username (should you choose to set one) on Telegram are always public. In any of the above cases, the developers of an automated user (bot) can get your public account data (see section 3.1 above): your screen name, username and profile picture(s).</t>
+  </si>
+  <si>
     <t>17-5-1</t>
   </si>
   <si>
@@ -2106,6 +2118,9 @@
   </si>
   <si>
     <t>26-3-1</t>
+  </si>
+  <si>
+    <t>Shopping with us: When you shop with us, including online, or browse our sites or apps: images and videos that you post online to facilitate our service provision or sales promotions.</t>
   </si>
   <si>
     <t>26-3-2</t>
@@ -3380,8 +3395,8 @@
   <sheetPr/>
   <dimension ref="A1:C636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="C625" sqref="C625"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -4321,56 +4336,56 @@
         <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>56</v>
@@ -4381,7 +4396,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>18</v>
@@ -4392,7 +4407,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>66</v>
@@ -4403,51 +4418,51 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>66</v>
@@ -4458,7 +4473,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>23</v>
@@ -4469,7 +4484,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>66</v>
@@ -4480,7 +4495,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>66</v>
@@ -4491,5898 +4506,5898 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" t="s">
         <v>154</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C111" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C112" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C113" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C114" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C121" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C122" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C124" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C128" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C129" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C130" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C131" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C136" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C137" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C138" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C142" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C143" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C144" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C145" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C146" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C147" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C148" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C149" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C150" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C151" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" t="s">
         <v>206</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C152" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C153" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C154" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C155" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C157" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C159" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C160" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C161" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C162" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C163" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C164" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C167" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C168" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C169" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C170" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C171" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C172" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C174" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C175" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C176" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C177" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C178" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C179" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C180" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C183" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C184" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C185" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C187" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C188" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C189" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C191" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C193" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C194" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C195" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" t="s">
         <v>263</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C196" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C197" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C198" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C199" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C200" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C205" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C207" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C208" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C209" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C210" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C211" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C212" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C217" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C218" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C219" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C220" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C221" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C223" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C224" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C225" t="s">
         <v>301</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C225" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C226" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C227" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C228" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C229" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C230" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C232" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C233" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C234" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C235" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C236" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C237" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C239" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C240" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C246" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C247" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C248" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C249" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C250" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C252" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C253" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C254" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C255" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C256" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C257" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C258" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C259" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C260" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C261" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C263" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C264" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C265" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C267" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C268" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C269" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C270" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C271" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C272" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C273" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C275" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C276" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C277" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C278" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C279" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C284" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C285" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C286" t="s">
         <v>379</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C286" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C287" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C288" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C289" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C290" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C291" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C292" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C293" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C294" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C295" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C297" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C298" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C299" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C301" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C302" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C303" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C304" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C305" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C306" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C307" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C308" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C309" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C310" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C312" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C313" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C314" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C315" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C316" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C317" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C318" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C319" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C320" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C321" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C322" t="s">
         <v>425</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C322" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C323" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C324" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C325" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C326" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C328" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C330" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C331" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C332" t="s">
         <v>438</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C332" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C333" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C334" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C335" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C336" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C337" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C338" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C339" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C340" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C341" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C342" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C343" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C345" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C346" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C347" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C348" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C349" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C350" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C351" t="s">
         <v>459</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C351" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C352" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C353" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C355" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C356" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C357" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C358" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C359" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C360" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C361" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C362" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C363" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C364" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C365" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C366" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C367" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C368" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C369" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C370" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C371" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C372" t="s">
         <v>481</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C372" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C373" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C374" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C375" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C376" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C377" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C378" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C379" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C380" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C381" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C382" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C383" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C384" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C385" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C386" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C387" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C388" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C389" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C390" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C391" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C392" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C393" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C394" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C395" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C396" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C397" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C398" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C399" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C400" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C401" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C402" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C403" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C404" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C405" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C406" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C407" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C408" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C409" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C410" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C411" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C412" t="s">
-        <v>85</v>
+        <v>532</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C413" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C414" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C415" t="s">
-        <v>85</v>
+        <v>537</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C416" t="s">
-        <v>85</v>
+        <v>532</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C417" t="s">
-        <v>85</v>
+        <v>532</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C418" t="s">
-        <v>85</v>
+        <v>532</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C419" t="s">
-        <v>85</v>
+        <v>532</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C420" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C421" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C422" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C423" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C424" t="s">
         <v>543</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C424" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C425" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C426" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C427" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C428" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C429" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C430" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C431" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C432" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C433" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C434" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C435" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C436" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C437" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C438" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C439" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C440" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C441" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C442" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C443" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C444" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C445" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C446" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C447" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C448" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C449" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C450" t="s">
         <v>580</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C450" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C451" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C452" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C453" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C454" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C455" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C456" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C457" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C458" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C459" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C460" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C461" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C462" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C463" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C464" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C465" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C466" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C467" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C468" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C469" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C470" t="s">
         <v>604</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C470" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C471" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C472" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C473" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C474" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C475" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C476" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C477" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C478" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C479" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C480" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C481" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C482" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C483" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C484" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C485" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C486" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C487" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C488" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C489" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C490" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C491" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C492" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C493" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C494" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C495" t="s">
         <v>635</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C495" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C496" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C497" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C498" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C499" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C500" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C501" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C502" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C503" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C504" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C505" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C506" t="s">
         <v>649</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C506" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C507" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C508" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C509" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C510" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C511" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C512" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C513" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C514" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C515" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C516" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C517" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C518" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C519" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C520" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C521" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C522" t="s">
         <v>665</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C522" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C523" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C524" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C525" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C526" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C527" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C528" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C529" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C530" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C531" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C532" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C533" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C534" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C535" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C536" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C537" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C538" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C539" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C540" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C541" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C542" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C543" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C544" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C545" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C546" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="1" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C547" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C548" t="s">
-        <v>85</v>
+        <v>701</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C549" t="s">
-        <v>85</v>
+        <v>701</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C550" t="s">
-        <v>85</v>
+        <v>701</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C551" t="s">
-        <v>85</v>
+        <v>701</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C552" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C553" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C554" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C555" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C556" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C557" t="s">
-        <v>85</v>
+        <v>701</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C558" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C559" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C560" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C561" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C562" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C563" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C564" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C565" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C566" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C567" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C568" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C569" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C570" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C571" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C572" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C573" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C574" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C575" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C576" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C577" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C578" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C579" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C580" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C581" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C582" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C583" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C584" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C585" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C586" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C587" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C588" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C589" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C590" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C591" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C592" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C593" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C594" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C595" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="596" spans="1:3">
       <c r="A596" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C596" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="A597" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C597" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="598" spans="1:3">
       <c r="A598" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C598" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C599" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C600" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C601" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C602" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C603" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C604" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C605" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C606" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C607" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C608" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C609" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C610" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C611" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C612" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C613" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C614" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C615" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C616" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C617" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C618" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C619" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C620" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C621" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C622" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C623" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C624" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C625" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C626" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C627" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C628" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C629" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C630" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C631" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C632" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C633" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B634" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C634" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C635" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C636" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
